--- a/Kontext Sätze/welt_neutralforms_results.xlsx
+++ b/Kontext Sätze/welt_neutralforms_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="213">
   <si>
     <t>x</t>
   </si>
@@ -77,64 +77,580 @@
     <t>20</t>
   </si>
   <si>
-    <t>«Es gibt keine schlimmere Sprachverhunzung als diese unsäglichen Gender-Sternchen», sagte der Fraktionsvorsitzende Hans-Ulrich Rülke.</t>
-  </si>
-  <si>
-    <t>So schrieb die AfD-Bundestagsfraktionsvorsitzende Alice Weidel in einer Mitteilung im März 2019: „Die sogenannte ‚gendergerechte‘ Sprache ist ein Orwell-Projekt.</t>
-  </si>
-  <si>
-    <t>So schrieb die AfD-Bundestagsfraktionsvorsitzende Alice Weidel in einer Mitteilung im März 2019: «Die sogenannte «gendergerechte» Sprache ist ein Orwell-Projekt.</t>
-  </si>
-  <si>
-    <t>Die Vize-Bundesvorsitzende und frauenpolitische Sprecherin der Grünen, Ricarda Lang, kritisierte über das Kurznachrichtenportal: «Sprache verändert sich.</t>
-  </si>
-  <si>
-    <t>Der ehemalige Bundestagspräsident mahnte seine Partei zugleich, keine Parteimitglieder zu verprellen, „die das Gendersternchen nicht mitsprechen wollen und können“, wie er dem „ZEITmagazin“ (Donnerstag) sagte.</t>
-  </si>
-  <si>
-    <t>In den jüngsten Personaldebatten seiner Partei hatte sich Ploß zuletzt für Friedrich Merz als Parteivorsitzenden und später für Markus Söder (CSU) als Kanzlerkandidaten öffentlich positioniert.</t>
-  </si>
-  <si>
-    <t>Der AfD-Fraktionsvorsitzende Josef Dörr hatte zuvor gesagt, die Regierung solle mit gutem Beispiel vorangehen und «die normal gebräuchliche Sprache» auch in ihren Papieren und Reden benutzen.</t>
-  </si>
-  <si>
-    <t>«Der Abstieg der Sozialdemokratie hängt ganz wesentlich damit zusammen, dass die SPD das Aufstiegsversprechen aufgekündigt hat», sagte der Landesvorsitzende Joachim Stamp am Sonntag vor der Landeswahlversammlung in Dortmund.</t>
-  </si>
-  <si>
-    <t>Der frühere Juso-Bundesvorsitzende Kühnert ist stellvertretender SPD-Parteivorsitzender.</t>
-  </si>
-  <si>
-    <t>Berlin (dpa) - Die ehemalige Fraktionsvorsitzende der Linken im Bundestag, Sahra Wagenknecht, warnt vor einem Fiasko für ihre Partei und auch für die SPD bei der Bundestagswahl Ende September.</t>
-  </si>
-  <si>
-    <t>Warum solle nach diesem Scheitern ausgerechnet die Linke ihre Position hier überdenken, fragte die Parteivorsitzende.</t>
-  </si>
-  <si>
-    <t>Hamburgs Landesvorsitzender Ploß hatte sich schon vor Monaten dafür ausgesprochen, dass staatliche Stellen die Einführung von Gendersprache nicht mitmachen.</t>
-  </si>
-  <si>
-    <t>Berlin (dpa) - Die neue EKD-Ratsvorsitzende Annette Kurschus hält die Bezeichnung Gott für geschlechtsneutral - und sieht «keinen Grund, das Wort zu gendern».</t>
-  </si>
-  <si>
-    <t>Zuvor hatten Gremienmitglieder massiven Unmut über die Tendenz zum gesprochenen Genderstern im ZDF-Programm geäußert und eine „Leitungsentscheidung“ zu dem Thema gefordert.</t>
-  </si>
-  <si>
-    <t>Der frühere Bundesverteidigungsminister Franz Josef Jung (CDU) und andere Fernsehratsmitglieder kritisierten, eine übergroße Mehrheit der Bevölkerung lehne die Verwendung des Gendersterns in der gesprochenen Sprache ab.</t>
-  </si>
-  <si>
-    <t>Stuttgart (dpa/lsw) - Die vom neuen CDU-Bundesvorsitzenden Friedrich Merz als stellvertretende Generalsekretärin vorgesehene Bundestagsabgeordnete Christina Stumpp hält überhaupt nichts vom Gendern.</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Immerhin 72 Prozent des Lehrpersonals finden, man solle sich gendergerechter Sprache verweigern dürfen – zum Beispiel also etwa „Studenten“ sagen dürfen statt „Studierende“.</t>
+  </si>
+  <si>
+    <t>Quelle: WELT/ Simone Egarter Immerhin 72 Prozent des Lehrpersonals finden, man solle sich gendergerechter Sprache verweigern dürfen – zum Beispiel also etwa „Studenten“ sagen dürfen statt „Studierende“.</t>
+  </si>
+  <si>
+    <t>So werde bei Worten, die Personen beschreiben, das «Gendersternchen» genutzt (Kieler*innen, ein*e Antragsteller*in), falls das Neutralisieren (Teilnehmende, Leitung) nicht ausreicht.</t>
+  </si>
+  <si>
+    <t>Formulierungen wie «Sehr geehrte Anwesende», «Liebe Kieler*innen», «Verehrtes Publikum» oder «Liebe Lehrkräfte» gehören zu den Ergebnissen.</t>
+  </si>
+  <si>
+    <t>Stuttgart (dpa/lsw) - «Schülerinnen und Schüler», «Schüler*innen», «Schüler_innen» oder einfach nur «Lernende»?</t>
+  </si>
+  <si>
+    <t>Christoph Alms vom Netzwerk LSBTTIQ Baden-Württemberg sieht dagegen Handlungsbedarf in Schule und Unterricht: Nicht nur Lernende, sondern auch Lehrkräfte und Schulleitungen sollten für vielfältige Lebensweisen und diskriminierungsarme Sprache sensibilisiert werden.</t>
+  </si>
+  <si>
+    <t>An den Schulen in Baden-Württemberg gibt es keine Vorgaben an die Lehrkräfte, wie mit Schreibweisen wie Genderstern oder -gap umzugehen ist.</t>
+  </si>
+  <si>
+    <t>Es gebe zwar bisher keine einheitliche Position des Verbandes dazu, sagt der Vorsitzende Ralf Scholl.</t>
+  </si>
+  <si>
+    <t>Seine reflexhafte Kritik stammt vermutlich von Worten wie „Studierende“, die als Ersatz für das generische Maskulinum in Mode gekommen sind.</t>
+  </si>
+  <si>
+    <t>Max Goldt, der wahrlich nicht im Verdacht steht, ein Vordenker der AfD zu sein, schrieb 2002: „Wie lächerlich der Begriff ‚Studierende‘ ist, wird deutlich, wenn man ihn mit einem Partizip Präsens verbindet.</t>
+  </si>
+  <si>
+    <t>Man kann nicht sagen: ‚In der Kneipe sitzen biertrinkende Studierende.‘“</t>
+  </si>
+  <si>
+    <t>Während ähnliche Sprachempfehlungen in den meisten Behörden und Organisationen ohne viel Aufsehen im Instrumentenkasten landeten, empörten sich in Stuttgart sogar Mitglieder der eigenen grün-schwarzen Landesregierung über die Vorschläge.</t>
+  </si>
+  <si>
+    <t>Geraten wird darin beispielsweise, das Publikum mit „Sehr geehrte Anwesende“, „Interessierte“, „Fachkräfte“ oder, falls sich das anbiete, „liebe Menschen“ anzusprechen, statt die rituelle Formel „Damen und Herren“ zu benutzen.</t>
+  </si>
+  <si>
+    <t>Der Preis sei ein „Feigenblatt für Innovation“, erklärte deren Vorsitzende Barbara Rohm.</t>
+  </si>
+  <si>
+    <t>Dann würden die Sprecherinnen und Sprecher auf geschlechtsneutrale Worte wie „Studierende“ oder „Teilnehmende“ zurückgreifen oder den Satz ganz umformulieren.</t>
+  </si>
+  <si>
+    <t>Eine könnte das Partizip sein (Lesende, Mitarbeitende).</t>
+  </si>
+  <si>
+    <t>Der Leitfaden empfiehlt als Alternative zur Anrede «Sehr geehrte Damen und Herren» geschlechterneutrale Formulierungen wie «Sehr geehrte Teilnehmende» oder «Liebe Menschen».</t>
+  </si>
+  <si>
+    <t>Befürworter wollen damit für Gleichberechtigung von Männern und Frauen im geschriebenen Wort sorgen - zum Beispiel mit Wörtern wie Studierende statt Studenten oder auch mit einem Stern vor der weiblichen Endung.</t>
+  </si>
+  <si>
+    <t>Die Erregung über die Katholische Studierende Jugend (KSJ), die angekündigt hat, künftig Gott* mit Gendersternchen zu schreiben, weil der/die/das Allmächtige keinem Geschlecht oder einer anderen menschlichen Kategorie zuzuordnen sei, ist grundlos.</t>
+  </si>
+  <si>
+    <t>Stattdessen seien Wörter wie „Publikum“ oder „Studierende“ möglich, schrieb der Intendant in seinem Blog.</t>
+  </si>
+  <si>
+    <t>Diese sollen zeigen, dass Versuchspersonen bei maskulinen Nomen wie Bürger, Musiker oder Lehrer eher an männliche Individuen denken.</t>
+  </si>
+  <si>
+    <t>Eine Welt voller Lehrkräfte, Gartenkräfte, Hilfskräfte, Führungskräfte, Pressepersonen, Gastpersonen, Reitpersonen, Schiffspersonen – und Diverse.</t>
+  </si>
+  <si>
+    <t>Für gewöhnlich treten Mitglieder einer Boyband in farblich aufeinander abgestimmten Outfits auf.</t>
+  </si>
+  <si>
+    <t>Außerdem wird angeregt, Infomaterial zur Verfügung zu stellen, „damit sich Studierende, die mit dem Thema noch nicht vertraut sind, einlesen können“.</t>
+  </si>
+  <si>
+    <t>Die Zeitung, laut der manche Uni-Mitarbeiter nur noch Interviews gäben, wenn ihre Aussagen gegendert würden, zitiert Sylke Ernst, Leiterin der Stabsstelle Gleichberechtigung, mit dem Satz, „Lehrende“ könnten „zum Beispiel in Hausarbeiten Punkte abziehen und so eine schlechtere Note geben, wenn die Geschlechtsbezeichnungen nicht korrekt sind“.</t>
+  </si>
+  <si>
+    <t>Das dürfte der Vorsitzende des Vereins Deutsche Sprache freuen – Walter Krämer sagte der Zeitung, er hoffe darauf, dass ein Betroffener „den Mut“ aufbringe zu klagen.</t>
+  </si>
+  <si>
+    <t>Er hat rund 40 Mitglieder aus Deutschland, Österreich, der Schweiz, dem Fürstentum Liechtenstein, der Autonomen Provinz Bozen-Südtirol und der Deutschsprachigen Gemeinschaft Belgiens.</t>
+  </si>
+  <si>
+    <t>Insgesamt neun Dax-Mitglieder gaben an, in diesen Bereichen zu gendern.</t>
+  </si>
+  <si>
+    <t>Wenn er Vorträge übers Gendern halte, sage er schon mal „Liebe Anwesende“.</t>
+  </si>
+  <si>
+    <t>Aber Schülerinnen und Schüler wie Studierende dürfen keine Nachteile erfahren, wenn sie nicht gendern!“</t>
+  </si>
+  <si>
+    <t>Dabei schreckt sie auch vor markigen Sprüchen nicht zurück, was auch immer wieder Mitglieder ihrer Partei vor den Kopf stößt.</t>
+  </si>
+  <si>
+    <t>„Mitarbeitende“ statt „Mitarbeiter“ ist demnach ein gutes Beispiel für neutrale Formulierungen, genauso wie „Führungskraft“ statt „Chef“.</t>
+  </si>
+  <si>
+    <t>„Wir haben als Hamburger CDU in den vergangenen Wochen gezeigt, dass wir in der Lage sind, ein politisches Powerplay aufzuziehen“, sagte der Vorsitzende Christoph Ploß am Dienstagabend bei einem Online-Landesparteitag.</t>
+  </si>
+  <si>
+    <t>Konkret bedeutet das mit Blick in den Leitfaden, in dem zahlreiche Empfehlungen gegeben werden, dass nun Lehrkraft statt Lehrerin oder Lehrer gesagt oder geschrieben werden könne, oder Studierende statt Studentin und Student.</t>
+  </si>
+  <si>
+    <t>Mehrere Mitglieder der Linkspartei hatten ein Parteiausschlussverfahren gegen Wagenknecht bei der NRW- Landesschiedskommission beantragt.</t>
+  </si>
+  <si>
+    <t>Als „Teamleitung (m/w/d) Panzertruppe“ werden im Internet Bewerber gesucht, die im Kampfpanzer „Leopard 2“ den Ton angeben wollen.</t>
+  </si>
+  <si>
+    <t>„Übersetzung „Teamleitung“ in „Heeresdeutsch“: Panzerkommandant/ Panzerkommandantin“, schrieb Generalleutnant Alfons Mais, Inspekteur des Heeres, am Donnerstag auf Twitter.</t>
+  </si>
+  <si>
+    <t>«Und gut ist es auch, wenn Lehrkräfte gemeinsam mit ihren Schülerinnen und Schülern eine Schreibweise bezüglich der Sonderformen beim Gendern vereinbaren.» © dpa-infocom, dpa:210728-99-580116/2</t>
+  </si>
+  <si>
+    <t>«Und gut ist es auch, wenn Lehrkräfte gemeinsam mit ihren Schülerinnen und Schülern eine Schreibweise bezüglich der Sonderformen beim Gendern vereinbaren.»</t>
+  </si>
+  <si>
+    <t>Mehrere Mitglieder der Linkspartei werfen Wagenknecht dagegen vor, der Partei zu schaden und haben ein Parteiausschlussverfahren gegen Wagenknecht bei der nordrhein-westfälischen Landesschiedskommission angestoßen.</t>
+  </si>
+  <si>
+    <t>Für all diese Positionen gebe es breite gesellschaftliche Mehrheiten, sagte die Linken-Vorsitzende.</t>
+  </si>
+  <si>
+    <t>In ihren eigenen Anreden an die Mitglieder des Stadtrats während einer Sitzung sei sie selbst dazu übergegangen, statt von einer „Rednerliste“ nun von einer „Redeliste“ zu sprechen, erläuterte Dörner.</t>
+  </si>
+  <si>
+    <t>Der CDU-Vorsitzende präsentierte sich als Fan von Fernsehserien, lehnte persönlich das Gendern in der Sprache ab, ohne es insgesamt zu verteufeln, und schätzte sich trotz seiner wenigen Zeit für das Familienleben als passablen Vater ein.</t>
+  </si>
+  <si>
+    <t>Es ist nämlich kein Zufall, dass größere Unternehmen mit internationaler Kundschaft und multikulturellem Personal sowie Unternehmen im Medien-, Sozial- und Dienstleistungsbereich sich gerade in der Außendarstellung und bei Stellenanzeigen aufgeschlossen, modern, divers und genderneutral geben wollen, selbst wenn sie Produkte anbieten, die eher eine konservative Klientel ansprechen.</t>
+  </si>
+  <si>
+    <t>Stattdessen werden sogenannte Gender-Sternchen eingesetzt („Teilnehmer*innen“ statt „Teilnehmer“), aber auch andere Formen wie Substantivierungen („Teilnehmende“) werden als genderneutral verstanden.</t>
+  </si>
+  <si>
+    <t>Stattdessen empfiehlt das Ministerium die Verwendung von Paarformen wie Schülerinnen und Schüler oder geschlechtsneutrale Formulierungen wie etwa Lehrkräfte oder Jugendliche.</t>
+  </si>
+  <si>
+    <t>«Lehrende und Lernende sollten frei das Ziel erreichen können, die Realität der gesellschaftlichen Vielfalt sprachlich abzubilden», so die Abgeordnete Sarah Buddeberg. © dpa-infocom, dpa:210831-99-38615/5</t>
+  </si>
+  <si>
+    <t>Stattdessen empfiehlt das Ministerium die Verwendung von Paarformen wie «Schülerinnen und Schüler» oder geschlechtsneutrale Formulierungen wie etwa Lehrkräfte.</t>
+  </si>
+  <si>
+    <t>Stattdessen empfiehlt das Ministerium die Verwendung von Paarformen wie „Schülerinnen und Schüler“ oder geschlechtsneutrale Formulierungen wie etwa Lehrkräfte.</t>
+  </si>
+  <si>
+    <t>Bei den geschlechtsneutralen Formulierungen bietet sich ein weites Spektrum: Substantivierung von Partizipien oder Adjektiven (Studierende), Umschreibungen (statt Kunde Kundschaft), Passivformulierungen.</t>
+  </si>
+  <si>
+    <t>Bei 18 Prozent reagierte die Führungskraft demnach negativ, als die Frauen von ihrer Schwangerschaft berichteten.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende der CDU Mecklenburg-Vorpommern und Spitzenkandidat zur Landtagswahl, Michael Sack, sagte, die Entwicklung zur Kunstsprache exkludiere diejenigen, die sich mit Rechtschreibung und Grammatik so schon schwertäten.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende der CDU Mecklenburg-Vorpommern und Spitzenkandidat zur Landtagswahl, Michael Sack, sagte, er würde sich wünschen, „dass auch das hiesige Bildungsministerium die Anwendung korrekter Rechtschreibregeln im Unterricht anmahnt“.</t>
+  </si>
+  <si>
+    <t>Die stellvertretende Vorsitzende des Landtags-Bildungsausschusses, Katja Poschmann (SPD), sagte, der Landtag sei gar nicht die Instanz für die Normierung der Sprache.</t>
+  </si>
+  <si>
+    <t>Daher könne es auch nicht sein, dass Studierende möglicherweise eine schlechtere Bewertung bekämen, nur weil sie keine Gendersternchen verwendeten.</t>
+  </si>
+  <si>
+    <t>«Die politisch indoktrinierten, künstlichen Auswüchse gendermoralistischer Sprachakrobatik» seien abzulehnen, solange sie sich nicht von unten nach oben in der Gesellschaft durchsetzten, sondern von einzelnen Institutionen oder Medienanstalten auferlegt würden, heißt es in dem Antrag, den der Vorsitzende der Jungen Union in Bayern, Christian Doleschal, eingebracht hatte.</t>
+  </si>
+  <si>
+    <t>Wo immer möglich, soll ein neutrales Wort verwendet werden, heißt es in der Empfehlung weiter, etwa „Teilnahmeliste“ statt „Teilnehmerliste“.</t>
+  </si>
+  <si>
+    <t>Die Mitglieder der Förderkommission erhalten die Lektorate ein paar Tage vor den Sitzungen, in denen sie über die Geldverteilung entscheiden.</t>
+  </si>
+  <si>
+    <t>Die KjG vertritt nach eigenen Angaben etwa 80.000 Mitglieder im Alter von etwa 9 bis 25 Jahren. © dpa-infocom, dpa:211028-99-768406/2 Mitteilung KjG</t>
+  </si>
+  <si>
+    <t>In Großbritannien förderte eine Kommission strukturelle Feindschaft gegenüber Juden bis in die Parteispitze der Labour Party ans Licht; der dabei bloßgestellte Vorsitzende Corbyn wurde ausgeschlossen.</t>
+  </si>
+  <si>
+    <t>Dass sich bei dem Thema eher eine jüngere, modeaffine Kundschaft angesprochen fühle, heiße aber nicht, dass andere Männer unbelehrbar seien: „Mit Argumenten wie Praktikabilität kann man gelegentlich im Verkauf sogar konservativere Kunden überzeugen.“</t>
+  </si>
+  <si>
+    <t>Die Substantivierung von Partizipien oder Adjektiven ist eine weitere Lösung, die schon oft verwendet wird, etwa bei den Bezeichnungen Studierende, Lehrende oder Promovierende.</t>
+  </si>
+  <si>
+    <t>Umschreibungen und Ableitungen auf -ung, -ium, -kraft, -schaft ermöglichen geschlechtsneutrale Formulierungen wie Lehrkräfte statt Lehrer und Kundschaft statt Kunde.</t>
+  </si>
+  <si>
+    <t>Es sei gut, «wenn Lehrkräfte gemeinsam mit ihren Schülerinnen und Schülern eine Schreibweise bezüglich der Sonderformen beim Gendern vereinbaren», hatte Schopper den «Stuttgarter Nachrichten» gesagt.</t>
+  </si>
+  <si>
+    <t>Die Kritik daran hält sie für übertrieben, die Lehrkräfte trieben eh andere Dinge um.</t>
+  </si>
+  <si>
+    <t>Statt „Lehrer und Lehrerinnen“ hieß es nun „Lehrende“ statt „Rednerpult“ „Redepult“.</t>
+  </si>
+  <si>
+    <t>Seitdem ist etwa das „Rednerpult“ ein „Redepult“ und aus „Wählern“ wurden „Wählende“.</t>
+  </si>
+  <si>
+    <t>Beim ZDF soll es auch künftig keine verbindlichen Regeln geben, die das Mitsprechen des sogenannten Gendersternchens bei der Moderation von Sendungen festlegt.</t>
+  </si>
+  <si>
+    <t>Die Vertreterin des Deutschen Journalisten-Verbandes (DJV), Katrin Kroemer, hielt dagegen, auch weiterhin müsse es den Verantwortlichen freigestellt bleiben, ob sie bei einer Moderation gendern wollten oder nicht: „Es darf keine Agitation dagegen geben, schon gar nicht durch Intendanten-Verordnung.“</t>
+  </si>
+  <si>
+    <t>Die Vize-CSU-Vorsitzende Dorothee Bär hatte auf Twitter kritisiert, mit den Verantwortungsgemeinschaften würde der im Grundgesetz festgelegte Schutz von Ehe und Familie entwertet.</t>
+  </si>
+  <si>
+    <t>Das aus dem Küstenschutz und Schiffbau bekannte Wort werde als Sammelbegriff für alle Schutzmaßnahmen benutzt, um die vierte Corona-Welle zu brechen, erklärte der GfdS-Vorsitzende Peter Schlobinski am Freitag in Wiesbaden die Entscheidung.</t>
+  </si>
+  <si>
+    <t>Er stehe aber kennzeichnend für die große Hilfsbereitschaft für die Menschen in der Region, erklärte der Vorsitzende.</t>
+  </si>
+  <si>
+    <t>«Wieder einmal setzt sich das Präsidium / Erweiterte Präsidium über einen Wunsch der Mitglieder der Synodalversammlung hinweg.»</t>
+  </si>
+  <si>
+    <t>Nun lesen die Mitglieder des „Bunds Deutscher Architektinnen und Architekten“, wie der BDA erst seit einer Umbenennung Ende 2020 heißt, eben in „der Architekt“, wie sie in der „Prisma“, in der „Hörzu“, in der „Auto, Motor &amp; Sport“ lesen.</t>
+  </si>
+  <si>
+    <t>Diese Statistik kann man, nachdem nun alle Filme gelaufen sind, natürlich fortsetzen: – Anzahl der Langfilme in den prominentesten Reihen, dem Wettbewerb und dem „Special“: 31 – mit weiblicher Hauptfigur: 15 – mit männlicher Hauptfigur: 8 – mit positiver weiblicher Hauptfigur: 13 – mit positiver männlicher Hauptfigur:4 Bei manchen Filmen stößt die Geschlechterbestimmung allerdings an ihre Grenzen, weil Lehmfiguren, Bäume, Parteien oder Diamanten die Hauptrolle spielen.</t>
+  </si>
+  <si>
+    <t>„Bekannt ist überdies, dass Probleme, etwa das der Vereinbarkeit von Beruf und Familie, aus der Sicht von Unternehmen, Personalverantwortlichen und Führungskräften in der Regel anders wahrgenommen werden als von Beschäftigten“, erklärte die stellvertretende DGB-Vorsitzende Elke Hannack.</t>
+  </si>
+  <si>
+    <t>Eine sehr deutliche Mehrheit vertritt den Angaben zufolge die Ansicht, dass in ihrem jeweiligen Unternehmen das Geschlecht der Führungskraft keinen Unterschied macht (74,4 Prozent).</t>
+  </si>
+  <si>
+    <t>„Es zahlt sich aus, gegen die ideologisch getriebene Gendersprache vorzugehen und sich nicht kleinkriegen zu lassen“, sagte der Vorsitzende Walter Krämer.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter schlug zur gütlichen Einigung vor, Audi könnte ihm künftig «halt normal schreiben».</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter fasste den Unterlassungsantrag so zusammen: «Der Gender Gap muss weg.»</t>
+  </si>
+  <si>
+    <t>Das Unternehmen schlägt entweder neutrale Formulierungen («Führungskraft» statt «Chef») oder den sogenannten Gender Gap vor, mit dem die männlichen und weiblichen Formen mit einem Unterstrich verbunden werden: So werden aus den bisherigen «Audianern» die «Audianer_innen».</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter schlug zur gütlichen Einigung vor, Audi könnte ihm künftig „halt normal schreiben“.</t>
+  </si>
+  <si>
+    <t>Dazu dienten neutrale Formulierungen („Führungskraft“ statt „Chef“) oder der sogenannte Gender Gap, der männliche und weibliche Formen mit einem Unterstrich verbindet („Mitarbeiter_innen“).</t>
+  </si>
+  <si>
+    <t>ICONIST: Was wünscht Ihre Kundschaft im Jahr 2022?</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter Christoph Hellerbrand betonte, dass der VW-Mitarbeiter nicht zur aktiven Nutzung des Leitfadens verpflichtet sei, weil dieser sich nur an Audi-Beschäftigte richte.</t>
+  </si>
+  <si>
+    <t>Die Mitglieder des Fußball-Zweitligisten haben in einer außerordentlichen Mitgliederversammlung am Donnerstag mit großer Mehrheit dem neuen Satzungsentwurf des Clubs zugestimmt.</t>
   </si>
   <si>
     <t>Mit insgesamt 96,3 Prozent Ja-Stimmen erreichte das neue Werk in der online abgehaltenen Veranstaltung die notwendige Zweidrittel-Mehrheit der 416 anwesenden Mitglieder problemlos.</t>
   </si>
   <si>
-    <t>WELT AM SONNTAG: In den ersten beiden Jahren nach der Wahl wirkten Sie als Fraktionsvorsitzender der größten Oppositionspartei beinahe zurückgenommen, seit einiger Zeit aber viel aggressiver.</t>
-  </si>
-  <si>
-    <t>Dennis Thering: Ich bin damals Fraktionsvorsitzender mitten in der Pandemie geworden.</t>
-  </si>
-  <si>
-    <t>„Deswegen werde ich als Parteivorsitzende immer wieder Entscheidungen treffen, die nicht perfekt sind, sondern erst mal nur kurzfristig etwas verbessern.“</t>
+    <t>Statt wie bisher ab 18 Jahren dürfen Mitglieder künftig ab einem Alter von 16 Jahren wählen.</t>
+  </si>
+  <si>
+    <t>Die Mitglieder unterstützten zudem mit großer Mehrheit eine neue Präambel mit einem expliziten Bekenntnis zum deutschen Grundgesetz, den Menschenrechten und Werten wie Nachhaltigkeit, Toleranz, Offenheit, Vielfalt und Diversität.</t>
+  </si>
+  <si>
+    <t>Die geplante Einführung der Gendersprache in der Satzung lehnten die Mitglieder mit 56 Prozent der Stimmen ab.</t>
+  </si>
+  <si>
+    <t>Gemeint sind damit Schreib- und Sprechweisen wie myplaceholder, Expert*innen, Demonstrant_innen oder Studierende.</t>
+  </si>
+  <si>
+    <t>Sie trat daraufhin als RBB-Intendantin und als ARD-Vorsitzende zurück.</t>
+  </si>
+  <si>
+    <t>Die Vorsitzende der Grünen, Ricarda Lang, versteht nicht, warum sie als Identitätspolitikerin gilt.</t>
+  </si>
+  <si>
+    <t>Die Mitglieder des Rates für deutsche Rechtschreibung, der Gesellschaft für deutsche Sprache, des PEN Deutschland, des Leibniz-Zentrums Allgemeine Sprachwissenschaft sowie verschiedene Linguisten hatten den öffentlich-rechtlichen Medien zuvor in einem Aufruf vorgeworfen, mit ihrem uneinheitlichen und ideologisch überformten Gebrauch von geschlechtergerechten Sprachformen für „erheblichen sozialen Unfrieden“ zu sorgen.</t>
+  </si>
+  <si>
+    <t>Wir haben nun für Aufnahmeersuche ehemaliger AfD-Mitglieder im Landesvorstand auf gemeinsamen Vorschlag von Christoph Ploß und mir eine eindeutige und einstimmige Regelung festgelegt.</t>
+  </si>
+  <si>
+    <t>Es gebe für ihn kein Recht, «in Ruhe gelassen zu werden», hatte der Vorsitzende Richter erklärt.</t>
+  </si>
+  <si>
+    <t>Es sei nicht mehr zeitgemäß, wenn Lehrkräfte Sternchen, Unterstrich oder Doppelpunkt negativ markierten.</t>
+  </si>
+  <si>
+    <t>So sollten in der Regel durchgängig die weibliche und die männliche Form oder neutrale Formen wie «Lehrkräfte» und «Studierende» verwendet werden.</t>
+  </si>
+  <si>
+    <t>Nach dpa-Informationen kamen die Stimmen gegen die Nutzung der Gendersprache ausschließlich von CDU und AfD sowie den vier Abgeordneten der Gruppe der Bürger für Thüringen, von denen drei Ex-AfD-Mitglieder sind.</t>
+  </si>
+  <si>
+    <t>Wie das Votum zustande kam, ist bemerkenswert: Bei der namentlichen Abstimmung stimmten nämlich die Fraktionen der AfD um Björn Höcke sowie der Bürger für Thüringen mit, deren vierköpfiger Fraktion drei Ex-AfD-Mitglieder angehören.</t>
+  </si>
+  <si>
+    <t>All das halten die Mitglieder von R21 für problematisch.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -204,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -212,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -220,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -228,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -236,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -244,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -252,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -260,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -268,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -276,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -284,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -292,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -300,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -308,7 +824,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -316,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -324,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -332,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -340,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
@@ -348,7 +864,735 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
